--- a/Ranking.xlsx
+++ b/Ranking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hsjol\Desktop\YOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D814769-5459-4FD9-95FE-F67B24908A4B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{176EB302-22BD-4115-B794-9B4CA0B8AA07}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12255" yWindow="4830" windowWidth="21750" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23190" yWindow="5460" windowWidth="21750" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="27">
   <si>
     <t xml:space="preserve">quick press </t>
   </si>
@@ -97,6 +97,15 @@
   </si>
   <si>
     <t>Hide and seek</t>
+  </si>
+  <si>
+    <t>Wall match</t>
+  </si>
+  <si>
+    <t>Planedash</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -421,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -434,114 +443,187 @@
     <col min="3" max="3" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
       <c r="B14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>23</v>
+      </c>
+      <c r="E19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Ranking.xlsx
+++ b/Ranking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hsjol\Desktop\YOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{176EB302-22BD-4115-B794-9B4CA0B8AA07}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B66F2820-8972-4BA5-A266-0A315E063E5E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23190" yWindow="5460" windowWidth="21750" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25245" yWindow="6060" windowWidth="21750" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="31">
   <si>
     <t xml:space="preserve">quick press </t>
   </si>
@@ -54,12 +54,6 @@
     <t>Sänkaskep</t>
   </si>
   <si>
-    <t>Alla har varsin bricka och man väljer vem man vill gå till</t>
-  </si>
-  <si>
-    <t>Where am I</t>
-  </si>
-  <si>
     <t>Flytat runt sin spelare.</t>
   </si>
   <si>
@@ -105,14 +99,32 @@
     <t>Planedash</t>
   </si>
   <si>
-    <t>x</t>
+    <t>h</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>ha</t>
+  </si>
+  <si>
+    <t>ah</t>
+  </si>
+  <si>
+    <t>Hinderbana</t>
+  </si>
+  <si>
+    <t>DUO</t>
+  </si>
+  <si>
+    <t>Alla har varsin bricka och man väljer vem man vill gå till  3x3  2 st 2 skepp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,13 +138,37 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -144,14 +180,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Bra" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -430,167 +472,242 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="71.7109375" customWidth="1"/>
-    <col min="2" max="2" width="62.85546875" customWidth="1"/>
+    <col min="2" max="2" width="73" customWidth="1"/>
     <col min="3" max="3" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="C1">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
+      <c r="C2">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
       <c r="G2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
       <c r="E3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
       <c r="F4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
       <c r="D5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
+      <c r="C6">
+        <v>11</v>
+      </c>
       <c r="F6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C7">
+        <v>17</v>
+      </c>
       <c r="G7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
+      <c r="C8">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
       <c r="F8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>24</v>
+      </c>
       <c r="G10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
+      <c r="C15">
+        <v>7</v>
+      </c>
       <c r="D15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="G15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
-      <c r="D16" t="s">
-        <v>26</v>
+      <c r="C16">
+        <v>18</v>
+      </c>
+      <c r="G16" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>21</v>
       </c>
-      <c r="G17" t="s">
+      <c r="C17">
+        <v>9</v>
+      </c>
+      <c r="E17" t="s">
         <v>26</v>
       </c>
     </row>
@@ -598,32 +715,52 @@
       <c r="A18" t="s">
         <v>22</v>
       </c>
+      <c r="C18">
+        <v>19</v>
+      </c>
+      <c r="F18" t="s">
+        <v>24</v>
+      </c>
       <c r="G18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>23</v>
       </c>
+      <c r="C19">
+        <v>20</v>
+      </c>
       <c r="E19" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="G19" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>28</v>
+      </c>
+      <c r="C20">
+        <v>15</v>
       </c>
       <c r="F20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Ranking.xlsx
+++ b/Ranking.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hsjol\Desktop\YOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B66F2820-8972-4BA5-A266-0A315E063E5E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA56294-B4BD-437B-90E6-EE65BD47CEDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25245" yWindow="6060" windowWidth="21750" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="5205" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -475,7 +475,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -543,7 +543,7 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
         <v>24</v>
@@ -669,7 +669,7 @@
         <v>18</v>
       </c>
       <c r="C14">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E14" t="s">
         <v>26</v>
@@ -680,7 +680,7 @@
         <v>19</v>
       </c>
       <c r="C15">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D15" t="s">
         <v>25</v>

--- a/Ranking.xlsx
+++ b/Ranking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hsjol\Desktop\YOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA56294-B4BD-437B-90E6-EE65BD47CEDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A13B3F2A-80A6-4F33-A032-8DBF013C27BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="5205" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25245" yWindow="6060" windowWidth="21750" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -475,7 +475,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -515,7 +515,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
         <v>25</v>
@@ -655,7 +655,7 @@
         <v>17</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" t="s">
         <v>24</v>
